--- a/src/main/resources/invalidRegistrationData.xlsx
+++ b/src/main/resources/invalidRegistrationData.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amasl\IdeaProjects\G10_maslovsky_project\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\IdeaProjects\G10_maslovsky_project\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6060187-01EF-4E29-B16B-C32FFD4D136E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7327CCEE-D1C7-4FEA-A1C8-518E0AEB423D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="invalidRegistrationData" sheetId="2" r:id="rId1"/>
+    <sheet name="invalidRegistrationData" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>email</t>
   </si>
@@ -437,11 +437,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9032BFF5-93D8-43C7-BF33-3E197181BC19}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B71D8E-FD8D-4BDC-84A2-61485E0D7001}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,9 +556,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>7</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -566,11 +569,17 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
       <c r="H6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -578,7 +587,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -596,36 +605,30 @@
         <v>7</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -633,35 +636,15 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
